--- a/DATA/reactor/Mol_Furnace.xlsx
+++ b/DATA/reactor/Mol_Furnace.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Models_In_Python\Work_Model v4.0\DATA\reactor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C57A25B-F776-4D77-A714-C0600C2EB888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7199295-06B0-4719-91AD-C89CD9C6352F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,33 +36,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>Температура вход</t>
-  </si>
-  <si>
-    <t>Температура выход</t>
-  </si>
-  <si>
-    <t>Давление выход</t>
-  </si>
-  <si>
-    <t>Давление вход</t>
-  </si>
-  <si>
     <t>№</t>
   </si>
   <si>
-    <t>Наименование</t>
-  </si>
-  <si>
-    <t>Объем</t>
-  </si>
-  <si>
-    <t>Кол-во шагов</t>
-  </si>
-  <si>
-    <t>Мольный расход</t>
-  </si>
-  <si>
     <t>Conv</t>
   </si>
   <si>
@@ -73,6 +49,30 @@
   </si>
   <si>
     <t>Rad2</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>temp_in</t>
+  </si>
+  <si>
+    <t>temp_out</t>
+  </si>
+  <si>
+    <t>press_in</t>
+  </si>
+  <si>
+    <t>press_out</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>steps</t>
+  </si>
+  <si>
+    <t>molar_flow_in</t>
   </si>
 </sst>
 </file>
@@ -401,7 +401,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,33 +417,33 @@
     <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="E1" t="s">
         <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>120</v>
@@ -480,7 +480,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
         <f>D2</f>
@@ -511,7 +511,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
         <f>D3</f>
@@ -542,7 +542,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
         <f>D4</f>
